--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st01.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st01.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Just when the Doctor is about to surrender to the merriment, an urgent message arrives…
+    <t xml:space="preserve">Just when the Doctor is about to surrender to the merriment, an urgent message arrives...
 </t>
   </si>
   <si>
